--- a/2020-linear.xlsx
+++ b/2020-linear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayte\Desktop\ED_WorkSpace\ED-2020-21-FernandezCoroMariaTeresa-UO263728\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC8D8D3-4492-4BCC-A6D4-19CCDFDC06E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10DC908-AE15-477E-A2E9-BC1BE8013FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Milisegundos</t>
+    <t>Valor n</t>
   </si>
   <si>
-    <t>Valor n</t>
+    <t>Milisegundos</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -483,50 +483,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -592,31 +548,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -691,31 +632,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" u="sng"/>
-              <a:t>Milisegundos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -752,8 +668,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'2020-linear'!$B$1</c:f>
@@ -768,10 +684,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -782,16 +695,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -917,16 +825,16 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12</c:v>
@@ -935,70 +843,70 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +914,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9022-4D5C-B34A-E9C8B0616DCA}"/>
+              <c16:uniqueId val="{00000000-F273-4A3F-9027-EB8433B447BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1020,286 +928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421751240"/>
-        <c:axId val="421750256"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'2020-linear'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Milisegundos</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'2020-linear'!$A$1:$A$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="32"/>
-                      <c:pt idx="0">
-                        <c:v>Valor n</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>30</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'2020-linear'!$B$2:$B$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="31"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>53</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-9022-4D5C-B34A-E9C8B0616DCA}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="413559912"/>
+        <c:axId val="413566472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="421751240"/>
+        <c:axId val="413559912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +975,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421750256"/>
+        <c:crossAx val="413566472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1350,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421750256"/>
+        <c:axId val="413566472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1034,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421751240"/>
+        <c:crossAx val="413559912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,23 +1637,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABD4AC1-7A5E-451F-9C6C-14D2E180F9FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445FC18D-4552-453A-9D59-9E4AC934E708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,269 +1974,268 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="B14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="B17" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="B19" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="B25" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="B29" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="B30" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
-        <v>49</v>
+      <c r="B31" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="8">
-        <v>53</v>
+      <c r="B32" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
